--- a/data/sender_list.xlsx
+++ b/data/sender_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\Mail_AutoMation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6534FF8-CF93-4607-A2EF-C9B05A7F810C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBAB59C-C627-4F1F-8F6C-62B855A761E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="52">
   <si>
     <t>Email Id</t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>EmmaTaylor147@outlook.com</t>
-  </si>
-  <si>
-    <t>Bingo@123</t>
-  </si>
-  <si>
-    <t>jonydadygarcia@gmail.com</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>USED-L</t>
@@ -84,12 +75,6 @@
     <t>JulianGarcia0082@outlook.com</t>
   </si>
   <si>
-    <t>devrabadiya1405@gmail.com</t>
-  </si>
-  <si>
-    <t>Dev@1405</t>
-  </si>
-  <si>
     <t>MateoHernandez121@outlook.com</t>
   </si>
   <si>
@@ -115,9 +100,6 @@
   </si>
   <si>
     <t>christophersloan1992@outlook.com</t>
-  </si>
-  <si>
-    <t>Bingo1234$</t>
   </si>
   <si>
     <t>USED (20)</t>
@@ -197,12 +179,15 @@
   <si>
     <t>VictoriaDiaz561@outlook.com</t>
   </si>
+  <si>
+    <t>pass@123</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +202,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -253,10 +245,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -273,8 +266,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,7 +488,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -527,723 +524,539 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
         <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
         <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
         <v>19</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s">
         <v>9</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s">
         <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s">
         <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s">
         <v>7</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s">
         <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s">
         <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s">
         <v>7</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s">
         <v>7</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7954,6 +7767,9 @@
     </row>
   </sheetData>
   <autoFilter ref="D1:D35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{333DE56E-A872-47DE-BC46-E8413E8FE6B1}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="8" orientation="portrait"/>
 </worksheet>
